--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,39 +22,57 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>008294</t>
   </si>
   <si>
+    <t>009651</t>
+  </si>
+  <si>
     <t>008295</t>
   </si>
   <si>
-    <t>009651</t>
-  </si>
-  <si>
     <t>009652</t>
   </si>
   <si>
     <t>朱雀企业优胜股票A</t>
   </si>
   <si>
+    <t>海富通成长甄选混合A</t>
+  </si>
+  <si>
     <t>朱雀企业优胜股票C</t>
   </si>
   <si>
-    <t>海富通成长甄选混合A</t>
-  </si>
-  <si>
     <t>海富通成长甄选混合C</t>
   </si>
   <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
     <t>90.22</t>
   </si>
   <si>
@@ -65,6 +83,18 @@
   </si>
   <si>
     <t>5.61</t>
+  </si>
+  <si>
+    <t>0.5784</t>
+  </si>
+  <si>
+    <t>0.1150</t>
+  </si>
+  <si>
+    <t>0.1044</t>
+  </si>
+  <si>
+    <t>0.0381</t>
   </si>
 </sst>
 </file>
@@ -422,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,84 +474,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -1,132 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008294</t>
-  </si>
-  <si>
-    <t>009651</t>
-  </si>
-  <si>
-    <t>008295</t>
-  </si>
-  <si>
-    <t>009652</t>
-  </si>
-  <si>
-    <t>朱雀企业优胜股票A</t>
-  </si>
-  <si>
-    <t>海富通成长甄选混合A</t>
-  </si>
-  <si>
-    <t>朱雀企业优胜股票C</t>
-  </si>
-  <si>
-    <t>海富通成长甄选混合C</t>
-  </si>
-  <si>
-    <t>14.57</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>90.22</t>
-  </si>
-  <si>
-    <t>94.39</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
-    <t>5.61</t>
-  </si>
-  <si>
-    <t>0.5784</t>
-  </si>
-  <si>
-    <t>0.1150</t>
-  </si>
-  <si>
-    <t>0.1044</t>
-  </si>
-  <si>
-    <t>0.0381</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,141 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -979,12 +979,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>5.97</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -566,6 +583,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +2004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,7 +2098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1511,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
+++ b/数据整理/stocks/A股/科创板/688333-铂力特.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6.06</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>5.97</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.9</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1360,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1720,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2098,7 +2551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +2759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
